--- a/Substitutes.xlsx
+++ b/Substitutes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08fdbd61c809a166/Desktop/PM7 to Cin7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08fdbd61c809a166/Desktop/Projects/PM7 to Cin7 Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="41" documentId="8_{D51370EC-FC33-4C06-B46A-ACB5212A9F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E384E14D-A8F8-4F54-9FD3-0688DF9BC78F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{075801A3-F3AE-42C9-BA78-895F4008AAE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{075801A3-F3AE-42C9-BA78-895F4008AAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Substitutions" sheetId="1" r:id="rId1"/>
@@ -7010,7 +7010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7092,12 +7092,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7968,8 +7962,8 @@
   <dimension ref="A1:XFC10146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18793,57 +18787,9 @@
       <c r="A8225" s="18"/>
       <c r="B8225" s="18"/>
     </row>
-    <row r="8355" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8355" s="35"/>
-      <c r="B8355" s="35"/>
-    </row>
-    <row r="8356" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8356" s="35"/>
-      <c r="B8356" s="35"/>
-    </row>
-    <row r="8357" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8357" s="35"/>
-      <c r="B8357" s="35"/>
-    </row>
-    <row r="8358" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8358" s="35"/>
-      <c r="B8358" s="35"/>
-    </row>
     <row r="8359" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8359" s="36"/>
-      <c r="B8359" s="36"/>
-    </row>
-    <row r="8360" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8360" s="35"/>
-      <c r="B8360" s="35"/>
-    </row>
-    <row r="8361" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8361" s="35"/>
-      <c r="B8361" s="35"/>
-    </row>
-    <row r="8362" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8362" s="35"/>
-      <c r="B8362" s="35"/>
-    </row>
-    <row r="8363" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8363" s="35"/>
-      <c r="B8363" s="35"/>
-    </row>
-    <row r="8364" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8364" s="35"/>
-      <c r="B8364" s="35"/>
-    </row>
-    <row r="8365" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8365" s="35"/>
-      <c r="B8365" s="35"/>
-    </row>
-    <row r="8366" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8366" s="35"/>
-      <c r="B8366" s="35"/>
-    </row>
-    <row r="8367" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8367" s="35"/>
-      <c r="B8367" s="35"/>
+      <c r="A8359" s="10"/>
+      <c r="B8359" s="10"/>
     </row>
     <row r="8415" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8415" s="7"/>
@@ -18852,10 +18798,6 @@
     <row r="8598" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8598" s="7"/>
       <c r="B8598" s="8"/>
-    </row>
-    <row r="8624" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8624" s="35"/>
-      <c r="B8624" s="35"/>
     </row>
     <row r="8698" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8698" s="4"/>
